--- a/python-stu/2.xlsx
+++ b/python-stu/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunsihai/Desktop/PythonClass/python-stu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E629CB3-C350-0C44-9A59-E1C63B06B49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A37C6-D0B6-0740-8AFE-E25EBE312614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>学号</t>
   </si>
@@ -49,18 +49,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>自动化学院</t>
   </si>
   <si>
     <t>自动化</t>
   </si>
   <si>
-    <t>自动化192</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -113,6 +98,59 @@
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>自动化190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -487,10 +525,15 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -523,259 +566,259 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="H3">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
+      <c r="H6">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
+      <c r="H7">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
